--- a/管理・設計ドキュメント/02_基本設計/11x.業務フロー設計/110.業務フロー図一覧.xlsx
+++ b/管理・設計ドキュメント/02_基本設計/11x.業務フロー設計/110.業務フロー図一覧.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\03.夢の宅配便\02_基本設計\11x.業務フロー設計\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\共有SSD\夢の宅配便\02_基本設計\11x.業務フロー設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F58193F-32E5-413C-903C-8F3D4B0441DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D07E2A-6116-4008-ACCD-BE01098AA6B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="570" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2070" yWindow="630" windowWidth="24375" windowHeight="14925" tabRatio="758" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="64" r:id="rId1"/>
     <sheet name="業務フロー一覧" sheetId="65" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">業務フロー一覧!$A$4:$K$69</definedName>
-    <definedName name="TABLE" localSheetId="1">業務フロー一覧!$C$46:$C$46</definedName>
-    <definedName name="TABLE_2" localSheetId="1">業務フロー一覧!$C$46:$C$46</definedName>
-    <definedName name="TABLE_3" localSheetId="1">業務フロー一覧!$C$46:$C$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">業務フロー一覧!$A$4:$K$74</definedName>
+    <definedName name="TABLE" localSheetId="1">業務フロー一覧!$C$51:$C$51</definedName>
+    <definedName name="TABLE_2" localSheetId="1">業務フロー一覧!$C$51:$C$51</definedName>
+    <definedName name="TABLE_3" localSheetId="1">業務フロー一覧!$C$51:$C$51</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="129">
   <si>
     <t>改訂日</t>
   </si>
@@ -646,37 +646,6 @@
       <t>カイケイ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>金管理</t>
-    </r>
-    <rPh sb="0" eb="3">
-      <t>ニュウシュッキン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
       <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -894,17 +863,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フェーズ１
-作業状況</t>
-    <rPh sb="6" eb="8">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>設計のみ</t>
     <rPh sb="0" eb="2">
       <t>セッケイ</t>
@@ -982,6 +940,57 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品タグ管理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品在庫管理</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェーズ２
+作業状況</t>
+    <rPh sb="6" eb="8">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出金管理</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュッキン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1254,7 +1263,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1329,15 +1338,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1358,6 +1358,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2166,12 +2181,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFBDDC9-FC87-4440-8177-1AA8689FFD49}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5:B5"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2203,10 +2218,10 @@
       <c r="J1" s="27"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="36" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -2220,13 +2235,13 @@
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
       <c r="I3" s="19"/>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="20">
         <v>1</v>
       </c>
@@ -2237,10 +2252,10 @@
         <v>3</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>27</v>
@@ -2248,14 +2263,14 @@
       <c r="I4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="31" t="s">
-        <v>114</v>
+      <c r="J4" s="35"/>
+      <c r="K4" s="28" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="15" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A5" s="13">
-        <f t="shared" ref="A5:A37" si="0">ROW()-4</f>
+        <f t="shared" ref="A5:A42" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -2269,16 +2284,16 @@
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16"/>
       <c r="J5" s="13"/>
       <c r="K5" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" ht="42" x14ac:dyDescent="0.15">
@@ -2286,27 +2301,27 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="33" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="36" t="s">
-        <v>115</v>
+      <c r="K6" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="15" customFormat="1" ht="42" x14ac:dyDescent="0.15">
@@ -2314,25 +2329,25 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="29"/>
+      <c r="D7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="36" t="s">
-        <v>115</v>
+      <c r="E7" s="30"/>
+      <c r="F7" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
@@ -2349,14 +2364,14 @@
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="13"/>
       <c r="K8" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
@@ -2369,20 +2384,20 @@
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="13"/>
       <c r="K9" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="84" x14ac:dyDescent="0.15">
@@ -2399,16 +2414,16 @@
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G10" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="13"/>
       <c r="K10" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -2416,25 +2431,25 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="35" t="s">
+      <c r="E11" s="30"/>
+      <c r="F11" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="36" t="s">
-        <v>116</v>
+      <c r="K11" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2451,14 +2466,14 @@
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="23"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="13"/>
       <c r="K12" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="15" customFormat="1" ht="42" x14ac:dyDescent="0.15">
@@ -2466,27 +2481,27 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="33"/>
-      <c r="F13" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="33" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="36" t="s">
-        <v>115</v>
+      <c r="K13" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -2505,14 +2520,14 @@
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
       <c r="J14" s="13"/>
       <c r="K14" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2520,23 +2535,23 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="36" t="s">
-        <v>116</v>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2544,21 +2559,21 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="36" t="s">
-        <v>116</v>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2566,21 +2581,21 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="36" t="s">
-        <v>116</v>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -2588,25 +2603,25 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="35"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="33" t="s">
+      <c r="F18" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K18" s="36" t="s">
-        <v>115</v>
+      <c r="K18" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2614,21 +2629,21 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="36" t="s">
-        <v>116</v>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
@@ -2647,16 +2662,16 @@
         <v>38</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
       <c r="J20" s="13"/>
       <c r="K20" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="15" customFormat="1" ht="42" x14ac:dyDescent="0.15">
@@ -2664,27 +2679,27 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="G21" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="33" t="s">
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="36" t="s">
-        <v>115</v>
+      <c r="K21" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
@@ -2692,25 +2707,25 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="36" t="s">
-        <v>115</v>
+      <c r="F22" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -2727,16 +2742,16 @@
         <v>41</v>
       </c>
       <c r="F23" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="13"/>
       <c r="K23" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2744,25 +2759,21 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>116</v>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2770,23 +2781,21 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>116</v>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2794,71 +2803,59 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33" t="s">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="33" t="s">
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="35"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A28" s="13">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="36" t="s">
-        <v>115</v>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="33" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2866,105 +2863,95 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="15" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A30" s="13">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="G30" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="15" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A31" s="13">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="15" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A32" s="13">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="F32" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="36" t="s">
-        <v>115</v>
+      <c r="B32" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
@@ -2972,23 +2959,25 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="F33" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="36" t="s">
-        <v>115</v>
+      <c r="B33" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
@@ -2996,202 +2985,252 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="15" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A35" s="13">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="15" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A36" s="13">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B36" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="15" customFormat="1" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A37" s="13">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F37" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J37" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="K37" s="36" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A38" s="13">
-        <f t="shared" ref="A38:A69" si="1">ROW()-4</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>116</v>
+      <c r="B38" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="32"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="33" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A39" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="16"/>
+      <c r="B39" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="33" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="40" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="16"/>
+      <c r="B40" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="33" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="41" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A41" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="16"/>
-    </row>
-    <row r="42" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.15">
       <c r="A42" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="16"/>
-    </row>
-    <row r="43" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G42" s="32"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="15" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A43" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A43:A74" si="1">ROW()-4</f>
         <v>39</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="16"/>
+      <c r="B43" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="30"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J43" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="44" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="13">
@@ -3609,8 +3648,88 @@
       <c r="J69" s="13"/>
       <c r="K69" s="16"/>
     </row>
+    <row r="70" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="13">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="16"/>
+    </row>
+    <row r="71" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="13">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="16"/>
+    </row>
+    <row r="72" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="13">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="16"/>
+    </row>
+    <row r="73" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="13">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="16"/>
+    </row>
+    <row r="74" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="13">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="16"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:K69" xr:uid="{4D6B1822-CB03-4A3F-AD7B-9785B331127F}"/>
+  <autoFilter ref="A4:K74" xr:uid="{4D6B1822-CB03-4A3F-AD7B-9785B331127F}"/>
   <mergeCells count="3">
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="B3:B4"/>
